--- a/src/analysis_examples/circadb/results_jtk/cosinor_10578757_fbxo8_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10578757_fbxo8_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.17547611179280043, 0.37931721251203165]</t>
+          <t>[0.17344563033725668, 0.3813476939675754]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.284508489352021e-05</v>
+        <v>1.657863857462694e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.284508489352021e-05</v>
+        <v>1.657863857462694e-05</v>
       </c>
       <c r="O2" t="n">
         <v>-0.4276842851733855</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.8050527720910781, -0.05031579825569299]</t>
+          <t>[-0.8302106712189241, -0.02515789912784694]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.02821394865831017</v>
+        <v>0.03837470860923231</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02821394865831017</v>
+        <v>0.03837470860923231</v>
       </c>
       <c r="S2" t="n">
         <v>0.5951810746862571</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5404635353108744, 0.6498986140616398]</t>
+          <t>[0.5405093016005104, 0.6498528477720039]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>1.66970970970976</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1964364364364459</v>
+        <v>0.09821821821822518</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.142982982983075</v>
+        <v>3.241201201201296</v>
       </c>
     </row>
   </sheetData>
